--- a/导出logistics回归-2mer.xlsx
+++ b/导出logistics回归-2mer.xlsx
@@ -374,12 +374,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Average intensity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Predicted probablity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Average intensity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -395,10 +395,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9693230216872631</v>
+        <v>2.8562</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8562</v>
+        <v>0.9652089751702514</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -413,10 +413,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6740868132542241</v>
+        <v>2.7307</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7307</v>
+        <v>0.3774668821211225</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,10 +431,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9981087466918318</v>
+        <v>3.5538</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5538</v>
+        <v>0.9980682818694158</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9406974808413359</v>
+        <v>3.088</v>
       </c>
       <c r="C5" t="n">
-        <v>3.088</v>
+        <v>0.9174456168660806</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8327850787268345</v>
+        <v>2.3864</v>
       </c>
       <c r="C6" t="n">
-        <v>2.3864</v>
+        <v>0.6650289564497187</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9447324974244851</v>
+        <v>3.1433</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1433</v>
+        <v>0.8884203635825292</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9979041977204767</v>
+        <v>2.6438</v>
       </c>
       <c r="C8" t="n">
-        <v>2.6438</v>
+        <v>0.9978515122448178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9737460704964266</v>
+        <v>4.510799999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>4.510799999999999</v>
+        <v>0.9625093618304287</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2121368775375913</v>
+        <v>0.3684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3684</v>
+        <v>0.01332374123839458</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7656603901904115</v>
+        <v>1.0739</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0739</v>
+        <v>0.6544841819603193</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7939324975297475</v>
+        <v>1.0019</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0019</v>
+        <v>0.6887200431354457</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9207285672523431</v>
+        <v>1.128</v>
       </c>
       <c r="C13" t="n">
-        <v>1.128</v>
+        <v>0.8646537986415789</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9854765960250689</v>
+        <v>4.136799999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>4.136799999999999</v>
+        <v>0.9825523719259042</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999093099952173</v>
+        <v>5.076099999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>5.076099999999999</v>
+        <v>0.9999091637634466</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9795034705010111</v>
+        <v>3.1497</v>
       </c>
       <c r="C16" t="n">
-        <v>3.1497</v>
+        <v>0.967861917944933</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9495276047407969</v>
+        <v>1.792</v>
       </c>
       <c r="C17" t="n">
-        <v>1.792</v>
+        <v>0.9353080514266703</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9971383534032751</v>
+        <v>2.4115</v>
       </c>
       <c r="C18" t="n">
-        <v>2.4115</v>
+        <v>0.9970607942633614</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997492373691897</v>
+        <v>3.5455</v>
       </c>
       <c r="C19" t="n">
-        <v>3.5455</v>
+        <v>0.9997480845854722</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4903120461190371</v>
+        <v>1.4405</v>
       </c>
       <c r="C20" t="n">
-        <v>1.4405</v>
+        <v>0.5636157659604444</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2334196759535055</v>
+        <v>1.177</v>
       </c>
       <c r="C21" t="n">
-        <v>1.177</v>
+        <v>0.3243525703128979</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5908341674183726</v>
+        <v>1.3885</v>
       </c>
       <c r="C22" t="n">
-        <v>1.3885</v>
+        <v>0.684996575587116</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2299616694876545</v>
+        <v>1.3771</v>
       </c>
       <c r="C23" t="n">
-        <v>1.3771</v>
+        <v>0.3801360501139842</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06782845118595313</v>
+        <v>0.2053</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2053</v>
+        <v>0.07911268142007516</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.452498317606969</v>
+        <v>1.2736</v>
       </c>
       <c r="C25" t="n">
-        <v>1.2736</v>
+        <v>0.5397678532228298</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
